--- a/fitted_results/fitted_results_competing(sub1_sub5_joint_band)/fitted_results(basic).xlsx
+++ b/fitted_results/fitted_results_competing(sub1_sub5_joint_band)/fitted_results(basic).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>loss</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,10 +462,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0348036642400995</v>
+        <v>0.06276416935584539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05442034162462635</v>
+        <v>0.05891663303906756</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GRAPH_LAPLACIAN_FILTERING</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2421393871428611</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06065083171610616</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.433937992330687</v>
       </c>
     </row>
   </sheetData>
